--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rspo3-Lgr5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rspo3-Lgr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.06937033333333334</v>
+        <v>0.1043256666666667</v>
       </c>
       <c r="H2">
-        <v>0.208111</v>
+        <v>0.312977</v>
       </c>
       <c r="I2">
-        <v>0.01708561286819356</v>
+        <v>0.02547563162231953</v>
       </c>
       <c r="J2">
-        <v>0.01708561286819356</v>
+        <v>0.02547563162231953</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1171866666666667</v>
+        <v>0.4967476666666666</v>
       </c>
       <c r="N2">
-        <v>0.35156</v>
+        <v>1.490243</v>
       </c>
       <c r="O2">
-        <v>0.01740710573940341</v>
+        <v>0.08283342158193596</v>
       </c>
       <c r="P2">
-        <v>0.01740710573940341</v>
+        <v>0.08283342158193596</v>
       </c>
       <c r="Q2">
-        <v>0.008129278128888889</v>
+        <v>0.05182353149011111</v>
       </c>
       <c r="R2">
-        <v>0.07316350316</v>
+        <v>0.466411783411</v>
       </c>
       <c r="S2">
-        <v>0.0002974110698191568</v>
+        <v>0.002110233734237693</v>
       </c>
       <c r="T2">
-        <v>0.0002974110698191568</v>
+        <v>0.002110233734237693</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.06937033333333334</v>
+        <v>0.1043256666666667</v>
       </c>
       <c r="H3">
-        <v>0.208111</v>
+        <v>0.312977</v>
       </c>
       <c r="I3">
-        <v>0.01708561286819356</v>
+        <v>0.02547563162231953</v>
       </c>
       <c r="J3">
-        <v>0.01708561286819356</v>
+        <v>0.02547563162231953</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +620,22 @@
         <v>5.906929</v>
       </c>
       <c r="O3">
-        <v>0.29247507594194</v>
+        <v>0.3283297691125296</v>
       </c>
       <c r="P3">
-        <v>0.2924750759419399</v>
+        <v>0.3283297691125296</v>
       </c>
       <c r="Q3">
-        <v>0.1365885445687778</v>
+        <v>0.2054147686258889</v>
       </c>
       <c r="R3">
-        <v>1.229296901119</v>
+        <v>1.848732917633</v>
       </c>
       <c r="S3">
-        <v>0.004997115921139499</v>
+        <v>0.00836440824855203</v>
       </c>
       <c r="T3">
-        <v>0.004997115921139497</v>
+        <v>0.00836440824855203</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +652,22 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.06937033333333334</v>
+        <v>0.1043256666666667</v>
       </c>
       <c r="H4">
-        <v>0.208111</v>
+        <v>0.312977</v>
       </c>
       <c r="I4">
-        <v>0.01708561286819356</v>
+        <v>0.02547563162231953</v>
       </c>
       <c r="J4">
-        <v>0.01708561286819356</v>
+        <v>0.02547563162231953</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +676,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.628736333333333</v>
+        <v>3.531223333333333</v>
       </c>
       <c r="N4">
-        <v>13.886209</v>
+        <v>10.59367</v>
       </c>
       <c r="O4">
-        <v>0.6875603264946389</v>
+        <v>0.5888368093055345</v>
       </c>
       <c r="P4">
-        <v>0.6875603264946388</v>
+        <v>0.5888368093055344</v>
       </c>
       <c r="Q4">
-        <v>0.3210969823554445</v>
+        <v>0.3683972283988889</v>
       </c>
       <c r="R4">
-        <v>2.889872841199</v>
+        <v>3.31557505559</v>
       </c>
       <c r="S4">
-        <v>0.01174738956201617</v>
+        <v>0.01500098963952981</v>
       </c>
       <c r="T4">
-        <v>0.01174738956201617</v>
+        <v>0.01500098963952981</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -714,55 +711,55 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.06937033333333334</v>
+        <v>3.990790333333333</v>
       </c>
       <c r="H5">
-        <v>0.208111</v>
+        <v>11.972371</v>
       </c>
       <c r="I5">
-        <v>0.01708561286819356</v>
+        <v>0.9745243683776804</v>
       </c>
       <c r="J5">
-        <v>0.01708561286819356</v>
+        <v>0.9745243683776804</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.01721733333333333</v>
+        <v>0.4967476666666666</v>
       </c>
       <c r="N5">
-        <v>0.051652</v>
+        <v>1.490243</v>
       </c>
       <c r="O5">
-        <v>0.002557491824017706</v>
+        <v>0.08283342158193596</v>
       </c>
       <c r="P5">
-        <v>0.002557491824017705</v>
+        <v>0.08283342158193596</v>
       </c>
       <c r="Q5">
-        <v>0.001194372152444444</v>
+        <v>1.982415786239222</v>
       </c>
       <c r="R5">
-        <v>0.010749349372</v>
+        <v>17.841742076153</v>
       </c>
       <c r="S5">
-        <v>4.369631521873673E-05</v>
+        <v>0.08072318784769826</v>
       </c>
       <c r="T5">
-        <v>4.369631521873672E-05</v>
+        <v>0.08072318784769826</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +773,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +788,40 @@
         <v>11.972371</v>
       </c>
       <c r="I6">
-        <v>0.9829143871318065</v>
+        <v>0.9745243683776804</v>
       </c>
       <c r="J6">
-        <v>0.9829143871318063</v>
+        <v>0.9745243683776804</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1171866666666667</v>
+        <v>1.968976333333333</v>
       </c>
       <c r="N6">
-        <v>0.35156</v>
+        <v>5.906929</v>
       </c>
       <c r="O6">
-        <v>0.01740710573940341</v>
+        <v>0.3283297691125296</v>
       </c>
       <c r="P6">
-        <v>0.01740710573940341</v>
+        <v>0.3283297691125296</v>
       </c>
       <c r="Q6">
-        <v>0.4676674165288889</v>
+        <v>7.857771717628776</v>
       </c>
       <c r="R6">
-        <v>4.20900674876</v>
+        <v>70.719945458659</v>
       </c>
       <c r="S6">
-        <v>0.01710969466958425</v>
+        <v>0.3199653608639775</v>
       </c>
       <c r="T6">
-        <v>0.01710969466958425</v>
+        <v>0.3199653608639775</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +835,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +850,10 @@
         <v>11.972371</v>
       </c>
       <c r="I7">
-        <v>0.9829143871318065</v>
+        <v>0.9745243683776804</v>
       </c>
       <c r="J7">
-        <v>0.9829143871318063</v>
+        <v>0.9745243683776804</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,152 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.968976333333333</v>
+        <v>3.531223333333333</v>
       </c>
       <c r="N7">
-        <v>5.906929</v>
+        <v>10.59367</v>
       </c>
       <c r="O7">
-        <v>0.29247507594194</v>
+        <v>0.5888368093055345</v>
       </c>
       <c r="P7">
-        <v>0.2924750759419399</v>
+        <v>0.5888368093055344</v>
       </c>
       <c r="Q7">
-        <v>7.857771717628777</v>
+        <v>14.09237194350778</v>
       </c>
       <c r="R7">
-        <v>70.719945458659</v>
+        <v>126.83134749157</v>
       </c>
       <c r="S7">
-        <v>0.2874779600208005</v>
+        <v>0.5738358196660046</v>
       </c>
       <c r="T7">
-        <v>0.2874779600208004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>3.990790333333333</v>
-      </c>
-      <c r="H8">
-        <v>11.972371</v>
-      </c>
-      <c r="I8">
-        <v>0.9829143871318065</v>
-      </c>
-      <c r="J8">
-        <v>0.9829143871318063</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>4.628736333333333</v>
-      </c>
-      <c r="N8">
-        <v>13.886209</v>
-      </c>
-      <c r="O8">
-        <v>0.6875603264946389</v>
-      </c>
-      <c r="P8">
-        <v>0.6875603264946388</v>
-      </c>
-      <c r="Q8">
-        <v>18.47231621461545</v>
-      </c>
-      <c r="R8">
-        <v>166.250845931539</v>
-      </c>
-      <c r="S8">
-        <v>0.6758129369326228</v>
-      </c>
-      <c r="T8">
-        <v>0.6758129369326226</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>3.990790333333333</v>
-      </c>
-      <c r="H9">
-        <v>11.972371</v>
-      </c>
-      <c r="I9">
-        <v>0.9829143871318065</v>
-      </c>
-      <c r="J9">
-        <v>0.9829143871318063</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.01721733333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.051652</v>
-      </c>
-      <c r="O9">
-        <v>0.002557491824017706</v>
-      </c>
-      <c r="P9">
-        <v>0.002557491824017705</v>
-      </c>
-      <c r="Q9">
-        <v>0.06871076743244443</v>
-      </c>
-      <c r="R9">
-        <v>0.618396906892</v>
-      </c>
-      <c r="S9">
-        <v>0.002513795508798969</v>
-      </c>
-      <c r="T9">
-        <v>0.002513795508798968</v>
+        <v>0.5738358196660045</v>
       </c>
     </row>
   </sheetData>
